--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happpy family\Desktop\Malini\C++PRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{956C5E0D-3FA6-43FB-A4E2-4DFA2A06F0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0CBF90-1303-4350-A556-41204000B369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{711582FC-6509-431A-B3CC-7ED9C502E58B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>SINO</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,9 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -650,7 +652,9 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -662,7 +666,9 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -674,7 +680,9 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -686,7 +694,9 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happpy family\Desktop\Malini\C++PRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0CBF90-1303-4350-A556-41204000B369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CDD6F-29E2-4540-B974-C215C5300F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{711582FC-6509-431A-B3CC-7ED9C502E58B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>SINO</t>
   </si>
@@ -66,9 +66,6 @@
     <t>5.Traverse the list</t>
   </si>
   <si>
-    <t>June/05/2021</t>
-  </si>
-  <si>
     <t>1.Delete the element from particular position of the list</t>
   </si>
   <si>
@@ -91,6 +88,27 @@
   </si>
   <si>
     <t>Sur_comments</t>
+  </si>
+  <si>
+    <t>June/07/2021</t>
+  </si>
+  <si>
+    <t>June/06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theorey </t>
+  </si>
+  <si>
+    <t>Theorey/Practical</t>
+  </si>
+  <si>
+    <t>Practical</t>
+  </si>
+  <si>
+    <t>Compilation process</t>
+  </si>
+  <si>
+    <t>Compilation steps and intermediate files created in C and C++</t>
   </si>
 </sst>
 </file>
@@ -178,9 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,23 +528,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55E230F-06D3-4E8D-BEE6-F4BD53655969}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,187 +553,227 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -720,8 +782,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -730,8 +793,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -740,8 +804,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -750,8 +815,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -760,8 +826,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -770,8 +837,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -780,8 +848,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -790,8 +859,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -800,8 +870,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -810,13 +881,16 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D2:D6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A7:A11"/>
   </mergeCells>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happpy family\Desktop\Malini\C++PRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CDD6F-29E2-4540-B974-C215C5300F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30144957-288A-4611-B838-40A43FD26EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{711582FC-6509-431A-B3CC-7ED9C502E58B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>SINO</t>
   </si>
@@ -66,9 +66,6 @@
     <t>5.Traverse the list</t>
   </si>
   <si>
-    <t>1.Delete the element from particular position of the list</t>
-  </si>
-  <si>
     <t>2.Sort the element in the linked list</t>
   </si>
   <si>
@@ -109,6 +106,27 @@
   </si>
   <si>
     <t>Compilation steps and intermediate files created in C and C++</t>
+  </si>
+  <si>
+    <t>June/08/2021</t>
+  </si>
+  <si>
+    <t>1.Delete all occurance of the number inputed</t>
+  </si>
+  <si>
+    <t>2.Remove duplicate element from the list</t>
+  </si>
+  <si>
+    <t>3.Delete first node of the list</t>
+  </si>
+  <si>
+    <t>4.Find the middle element using two pointer algorithm</t>
+  </si>
+  <si>
+    <t>5.Find the loop in the linked list using two pointer algorithm</t>
+  </si>
+  <si>
+    <t>1.Delete the element at the last</t>
   </si>
 </sst>
 </file>
@@ -531,7 +549,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +557,7 @@
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -553,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -565,13 +583,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -582,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -591,11 +609,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -608,11 +626,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -625,11 +643,11 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -642,11 +660,11 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -659,11 +677,11 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -672,22 +690,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -696,10 +716,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -711,13 +731,15 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -726,10 +748,10 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -741,10 +763,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -755,33 +777,47 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -789,10 +825,16 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -800,10 +842,16 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -811,8 +859,12 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -822,8 +874,12 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happpy family\Desktop\Malini\C++PRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30144957-288A-4611-B838-40A43FD26EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8693CE-2185-487B-AA22-E5313A3C5A6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{711582FC-6509-431A-B3CC-7ED9C502E58B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>SINO</t>
   </si>
@@ -127,6 +127,45 @@
   </si>
   <si>
     <t>1.Delete the element at the last</t>
+  </si>
+  <si>
+    <t>June/15/2021</t>
+  </si>
+  <si>
+    <t>Doubly Linked list</t>
+  </si>
+  <si>
+    <t>1. Insert at front</t>
+  </si>
+  <si>
+    <t>2. Insert at end</t>
+  </si>
+  <si>
+    <t>3. Insert at position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Delete all elements </t>
+  </si>
+  <si>
+    <t>6. Delete given number from the linked list</t>
+  </si>
+  <si>
+    <t>7. Update the given number from the linked list</t>
+  </si>
+  <si>
+    <t>8. Remove the duplicate element from the list</t>
+  </si>
+  <si>
+    <t>9. Delete middle element from the list</t>
+  </si>
+  <si>
+    <t>10. Search the eleemnt from the list</t>
+  </si>
+  <si>
+    <t>11. Sort the List</t>
+  </si>
+  <si>
+    <t>12. Traverse the list</t>
   </si>
 </sst>
 </file>
@@ -214,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -232,6 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55E230F-06D3-4E8D-BEE6-F4BD53655969}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,16 +836,16 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -821,10 +861,10 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
@@ -838,10 +878,10 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
@@ -855,10 +895,10 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
@@ -870,10 +910,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
@@ -885,62 +925,555 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D18:D29"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="A18:A29"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="D2:D6"/>
